--- a/biology/Botanique/Brède_mafane/Brède_mafane.xlsx
+++ b/biology/Botanique/Brède_mafane/Brède_mafane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Br%C3%A8de_mafane</t>
+          <t>Brède_mafane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acmella oleracea
 La Brède mafane[a], encore appelée cresson du Pará (Acmella oleracea, anciennement Spilanthes oleracea), est une espèce de plantes à fleurs de la famille des Asteraceae.
-C'est une plante herbacée essentiellement cultivée. On la pense originaire d'Amérique du Sud (Brésil et Pérou)[1].
+C'est une plante herbacée essentiellement cultivée. On la pense originaire d'Amérique du Sud (Brésil et Pérou).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Br%C3%A8de_mafane</t>
+          <t>Brède_mafane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Étymologie et dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme brède mafane relève du créole et du français régional de Madagascar et des Mascareignes.
 Le nom brède viendrait du portugais bredo (nom vernaculaire des Amaranthacées). Selon une autre source, il viendrait du mot indien brette (« feuille bonne à manger »).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Br%C3%A8de_mafane</t>
+          <t>Brède_mafane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,15 +563,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Noms scientifiques
-Spilanthes oleracea  L.
+          <t>Noms scientifiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Spilanthes oleracea  L.
 Spilanthes acmella Murr. var. oleracea Hook.f.
 Spilanthes acmella DC. var. oleracea (Jacq.) Baker
-Spilanthes acmella DC. var. oleracea (L.) Hook f[b].
-Noms vernaculaires
-En français : brèdes mafanes, cresson du Pará.
-En malgache : anamalaho, kimotodoha. Chez les Sakalaves de Morondava et de la région du Menabe, à l'ouest de Madagascar, les brèdes mafanes sont appelées kimalao. Avec d'autres brèdes comme le petsay et l'anandrano (cresson), elle s'utilise avec les viandes grasses. Les Vézos l'utilisent avec du poisson séché, le lemba (merlan).
-En portugais : jambu. Le jambu est particulièrement consommé dans le nord du Brésil.</t>
+Spilanthes acmella DC. var. oleracea (L.) Hook f[b].</t>
         </is>
       </c>
     </row>
@@ -567,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Br%C3%A8de_mafane</t>
+          <t>Brède_mafane</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +597,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En français : brèdes mafanes, cresson du Pará.
+En malgache : anamalaho, kimotodoha. Chez les Sakalaves de Morondava et de la région du Menabe, à l'ouest de Madagascar, les brèdes mafanes sont appelées kimalao. Avec d'autres brèdes comme le petsay et l'anandrano (cresson), elle s'utilise avec les viandes grasses. Les Vézos l'utilisent avec du poisson séché, le lemba (merlan).
+En portugais : jambu. Le jambu est particulièrement consommé dans le nord du Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brède_mafane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Br%C3%A8de_mafane</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tiges sont couchées sur le sol, feuilles ovales. Les capitules terminaux sont coniques et de couleur jaune ou rouge.
 Les feuilles et les fleurs en bouton ont une saveur poivrée piquante qui est plus forte dans les fleurs jaunes ouvertes. Les fleurs surtout sont légèrement anesthésiantes : l'effet produit est très particulier.
@@ -594,31 +649,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Br%C3%A8de_mafane</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brède_mafane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Br%C3%A8de_mafane</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les brèdes mafanes ne sont pas seulement consommées par les Malgaches, les Mahorais,  les Comoriens, les Réunionnais et les Sud-Américains. Elles ont été adoptées par toute l'Asie du Sud-Est. On les trouve couramment dans les épiceries chinoises.
 Les feuilles peuvent être employées fraîches ou sèches. Les feuilles entières (et les fleurs, selon les goûts) s'utilisent comme base du plat national malgache « le romazava » (appelé parfois, en Europe, roumazaf). Ce plat est aussi très répandu dans l'Archipel des Comores. La plante est réputée anesthésique, diurétique, digestive, sialagogue, antiasthmatique et antiscorbutique. Ses capitules sont réputés odontalgiques et antiscorbutiques.
@@ -627,31 +684,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Br%C3%A8de_mafane</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brède_mafane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Br%C3%A8de_mafane</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Emplacement
 En Europe, la Brède mafane apprécie une terre perméable, un emplacement ensoleillé au jardin ou sur le balcon.
